--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>cohort_year</t>
   </si>
@@ -31,6 +31,12 @@
     <t>retention_rate</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
@@ -44,6 +50,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="D2">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -449,13 +458,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="E3">
-        <v>0.05797101449275362</v>
+        <v>0.1083499005964215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="E4">
-        <v>0.03455964325529543</v>
+        <v>0.03777335984095427</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="E5">
-        <v>0.05016722408026756</v>
+        <v>0.004970178926441352</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,64 +509,64 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="E6">
-        <v>0.04013377926421405</v>
+        <v>0.006958250497017893</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>751</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>751</v>
+        <v>1006</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.006958250497017893</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>751</v>
+        <v>1006</v>
       </c>
       <c r="E8">
-        <v>0.1358189081225033</v>
+        <v>0.003976143141153081</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
       <c r="D9">
-        <v>751</v>
+        <v>1006</v>
       </c>
       <c r="E9">
-        <v>0.07989347536617843</v>
+        <v>0.001988071570576541</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,117 +574,474 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>2127</v>
       </c>
       <c r="D10">
-        <v>751</v>
+        <v>2127</v>
       </c>
       <c r="E10">
-        <v>0.04793608521970705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>981</v>
+        <v>132</v>
       </c>
       <c r="D11">
-        <v>981</v>
+        <v>2127</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.06205923836389281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>981</v>
+        <v>2127</v>
       </c>
       <c r="E12">
-        <v>0.1325178389398573</v>
+        <v>0.01739539257169723</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>981</v>
+        <v>2127</v>
       </c>
       <c r="E13">
-        <v>0.05606523955147808</v>
+        <v>0.01598495533615421</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>1259</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>1259</v>
+        <v>2127</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.01316408086506817</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>1259</v>
+        <v>2127</v>
       </c>
       <c r="E15">
-        <v>0.1175536139793487</v>
+        <v>0.01034320639398213</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>2127</v>
+      </c>
+      <c r="E16">
+        <v>0.002820874471086037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2659</v>
+      </c>
+      <c r="D17">
+        <v>2659</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>173</v>
+      </c>
+      <c r="D18">
+        <v>2659</v>
+      </c>
+      <c r="E18">
+        <v>0.06506205340353516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>129</v>
+      </c>
+      <c r="D19">
+        <v>2659</v>
+      </c>
+      <c r="E19">
+        <v>0.04851447912749154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>2659</v>
+      </c>
+      <c r="E20">
+        <v>0.02895825498307635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>2659</v>
+      </c>
+      <c r="E21">
+        <v>0.02181271154569387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>2659</v>
+      </c>
+      <c r="E22">
+        <v>0.007897705904475368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2278</v>
+      </c>
+      <c r="D23">
+        <v>2278</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>274</v>
+      </c>
+      <c r="D24">
+        <v>2278</v>
+      </c>
+      <c r="E24">
+        <v>0.1202809482001756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>2278</v>
+      </c>
+      <c r="E25">
+        <v>0.05662862159789289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>94</v>
+      </c>
+      <c r="D26">
+        <v>2278</v>
+      </c>
+      <c r="E26">
+        <v>0.04126426690079017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>2278</v>
+      </c>
+      <c r="E27">
+        <v>0.01229148375768218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B28">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>1601</v>
-      </c>
-      <c r="D16">
-        <v>1601</v>
-      </c>
-      <c r="E16">
+      <c r="C28">
+        <v>2317</v>
+      </c>
+      <c r="D28">
+        <v>2317</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>243</v>
+      </c>
+      <c r="D29">
+        <v>2317</v>
+      </c>
+      <c r="E29">
+        <v>0.1048769961156668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>133</v>
+      </c>
+      <c r="D30">
+        <v>2317</v>
+      </c>
+      <c r="E30">
+        <v>0.05740181268882175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2317</v>
+      </c>
+      <c r="E31">
+        <v>0.01294777729823047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2256</v>
+      </c>
+      <c r="D32">
+        <v>2256</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>202</v>
+      </c>
+      <c r="D33">
+        <v>2256</v>
+      </c>
+      <c r="E33">
+        <v>0.08953900709219859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>2256</v>
+      </c>
+      <c r="E34">
+        <v>0.02127659574468085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1932</v>
+      </c>
+      <c r="D35">
+        <v>1932</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>1932</v>
+      </c>
+      <c r="E36">
+        <v>0.04658385093167702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>463</v>
+      </c>
+      <c r="D37">
+        <v>463</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="D2">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -458,13 +458,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E3">
-        <v>0.1083499005964215</v>
+        <v>0.1071789686552073</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -475,13 +475,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E4">
-        <v>0.03777335984095427</v>
+        <v>0.03741152679474216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -495,10 +495,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E5">
-        <v>0.004970178926441352</v>
+        <v>0.005055611729019211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -509,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E6">
-        <v>0.006958250497017893</v>
+        <v>0.006066734074823054</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -529,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E7">
-        <v>0.006958250497017893</v>
+        <v>0.007077856420626896</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -546,10 +546,10 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E8">
-        <v>0.003976143141153081</v>
+        <v>0.004044489383215369</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -563,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>1006</v>
+        <v>989</v>
       </c>
       <c r="E9">
-        <v>0.001988071570576541</v>
+        <v>0.002022244691607685</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="D10">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D11">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E11">
-        <v>0.06205923836389281</v>
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -614,10 +614,10 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E12">
-        <v>0.01739539257169723</v>
+        <v>0.01756051257712387</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -631,10 +631,10 @@
         <v>34</v>
       </c>
       <c r="D13">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E13">
-        <v>0.01598495533615421</v>
+        <v>0.01613668723303275</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -648,10 +648,10 @@
         <v>28</v>
       </c>
       <c r="D14">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E14">
-        <v>0.01316408086506817</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -665,10 +665,10 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E15">
-        <v>0.01034320639398213</v>
+        <v>0.01044138585666825</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>2127</v>
+        <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.002820874471086037</v>
+        <v>0.003322259136212625</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="D17">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -713,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D18">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E18">
-        <v>0.06506205340353516</v>
+        <v>0.06292388847023361</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -733,10 +733,10 @@
         <v>129</v>
       </c>
       <c r="D19">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E19">
-        <v>0.04851447912749154</v>
+        <v>0.04860587792012058</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -750,10 +750,10 @@
         <v>77</v>
       </c>
       <c r="D20">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E20">
-        <v>0.02895825498307635</v>
+        <v>0.02901281085154484</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -764,13 +764,13 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E21">
-        <v>0.02181271154569387</v>
+        <v>0.02147701582516956</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>2659</v>
+        <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.007897705904475368</v>
+        <v>0.008289374529012811</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="D23">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D24">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="E24">
-        <v>0.1202809482001756</v>
+        <v>0.1190053285968028</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -832,13 +832,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="E25">
-        <v>0.05662862159789289</v>
+        <v>0.0563943161634103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -849,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="E26">
-        <v>0.04126426690079017</v>
+        <v>0.04129662522202487</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>2278</v>
+        <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01229148375768218</v>
+        <v>0.01509769094138544</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="D28">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -900,13 +900,13 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D29">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="E29">
-        <v>0.1048769961156668</v>
+        <v>0.1033737024221453</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -917,13 +917,13 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="E30">
-        <v>0.05740181268882175</v>
+        <v>0.05666089965397924</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>2317</v>
+        <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01294777729823047</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -968,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33">
         <v>2256</v>
       </c>
       <c r="E33">
-        <v>0.08953900709219859</v>
+        <v>0.08909574468085106</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.02127659574468085</v>
+        <v>0.02349290780141844</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D35">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D36">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.04658385093167702</v>
+        <v>0.04922279792746114</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="D37">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.003322259136212625</v>
+        <v>0.003796867584243</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01509769094138544</v>
+        <v>0.01554174067495559</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01470588235294118</v>
+        <v>0.01513840830449827</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.02349290780141844</v>
+        <v>0.02393617021276596</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.04922279792746114</v>
+        <v>0.05025906735751295</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="D37">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.008289374529012811</v>
+        <v>0.009042954031650339</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01554174067495559</v>
+        <v>0.01598579040852575</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01513840830449827</v>
+        <v>0.01557093425605536</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.02393617021276596</v>
+        <v>0.02570921985815603</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05025906735751295</v>
+        <v>0.05129533678756477</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D37">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01557093425605536</v>
+        <v>0.01643598615916955</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D37">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01643598615916955</v>
+        <v>0.01686851211072665</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.02570921985815603</v>
+        <v>0.02703900709219858</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D37">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.02703900709219858</v>
+        <v>0.0274822695035461</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D37">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.009042954031650339</v>
+        <v>0.009419743782969104</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01598579040852575</v>
+        <v>0.01642984014209592</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.0274822695035461</v>
+        <v>0.0301418439716312</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05129533678756477</v>
+        <v>0.05284974093264249</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D37">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05284974093264249</v>
+        <v>0.05440414507772021</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D37">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01642984014209592</v>
+        <v>0.01687388987566607</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05440414507772021</v>
+        <v>0.05492227979274612</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="D37">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05492227979274612</v>
+        <v>0.05544041450777202</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D37">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01686851211072665</v>
+        <v>0.01730103806228374</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05544041450777202</v>
+        <v>0.05647668393782383</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="D37">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05647668393782383</v>
+        <v>0.05751295336787565</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D37">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01687388987566607</v>
+        <v>0.01731793960923624</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.0301418439716312</v>
+        <v>0.03102836879432624</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D37">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D37">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D37">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.003796867584243</v>
+        <v>0.004271476032273375</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01731793960923624</v>
+        <v>0.01820603907637655</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01730103806228374</v>
+        <v>0.01773356401384083</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05751295336787565</v>
+        <v>0.05803108808290156</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="D37">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D37">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D37">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03102836879432624</v>
+        <v>0.03147163120567376</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05803108808290156</v>
+        <v>0.05854922279792746</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="D37">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.009419743782969104</v>
+        <v>0.009796533534287867</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05854922279792746</v>
+        <v>0.05906735751295337</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D37">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01773356401384083</v>
+        <v>0.01816608996539792</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03147163120567376</v>
+        <v>0.03191489361702127</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05906735751295337</v>
+        <v>0.05958549222797927</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D37">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.05958549222797927</v>
+        <v>0.06010362694300518</v>
       </c>
     </row>
     <row r="37" spans="1:5">

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06010362694300518</v>
+        <v>0.06062176165803109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D37">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03191489361702127</v>
+        <v>0.03280141843971631</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06062176165803109</v>
+        <v>0.06113989637305699</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D37">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.01816608996539792</v>
+        <v>0.0194636678200692</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06113989637305699</v>
+        <v>0.0616580310880829</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D37">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01820603907637655</v>
+        <v>0.01865008880994671</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D37">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="D37">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.0616580310880829</v>
+        <v>0.06217616580310881</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="D37">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.009796533534287867</v>
+        <v>0.01017332328560663</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03280141843971631</v>
+        <v>0.03368794326241135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="D37">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06217616580310881</v>
+        <v>0.06269430051813471</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D37">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01865008880994671</v>
+        <v>0.01909413854351687</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06269430051813471</v>
+        <v>0.06321243523316063</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="D37">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06321243523316063</v>
+        <v>0.06373056994818653</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="D37">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01017332328560663</v>
+        <v>0.01055011303692539</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06373056994818653</v>
+        <v>0.06476683937823834</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D37">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01909413854351687</v>
+        <v>0.01953818827708704</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06476683937823834</v>
+        <v>0.06580310880829016</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D37">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03368794326241135</v>
+        <v>0.03457446808510638</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06580310880829016</v>
+        <v>0.06683937823834196</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D37">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01055011303692539</v>
+        <v>0.01092690278824416</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06683937823834196</v>
+        <v>0.06735751295336788</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D37">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01092690278824416</v>
+        <v>0.01130369253956292</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01953818827708704</v>
+        <v>0.01998223801065719</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.0194636678200692</v>
+        <v>0.0198961937716263</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03457446808510638</v>
+        <v>0.03546099290780142</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06735751295336788</v>
+        <v>0.06787564766839378</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="D37">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.01998223801065719</v>
+        <v>0.02042628774422735</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06787564766839378</v>
+        <v>0.06839378238341969</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D37">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02042628774422735</v>
+        <v>0.02087033747779751</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D37">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="D37">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.0198961937716263</v>
+        <v>0.02032871972318339</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D37">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06839378238341969</v>
+        <v>0.06943005181347151</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="D37">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02032871972318339</v>
+        <v>0.02119377162629758</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D37">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02119377162629758</v>
+        <v>0.02162629757785467</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06943005181347151</v>
+        <v>0.06994818652849741</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="D37">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02087033747779751</v>
+        <v>0.02131438721136767</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="D37">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.06994818652849741</v>
+        <v>0.07046632124352331</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D37">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01130369253956292</v>
+        <v>0.01168048229088169</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07046632124352331</v>
+        <v>0.07150259067357513</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="D37">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="D37">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03546099290780142</v>
+        <v>0.03590425531914894</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D37">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03590425531914894</v>
+        <v>0.03679078014184397</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07150259067357513</v>
+        <v>0.07202072538860103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="D37">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02162629757785467</v>
+        <v>0.02205882352941177</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03679078014184397</v>
+        <v>0.03723404255319149</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07202072538860103</v>
+        <v>0.07253886010362694</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D37">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.004271476032273375</v>
+        <v>0.004746084480303749</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02131438721136767</v>
+        <v>0.02175843694493783</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03723404255319149</v>
+        <v>0.03767730496453901</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07253886010362694</v>
+        <v>0.07357512953367876</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="D37">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02175843694493783</v>
+        <v>0.02220248667850799</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02205882352941177</v>
+        <v>0.02292387543252595</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03767730496453901</v>
+        <v>0.03812056737588652</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="D37">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="D37">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02220248667850799</v>
+        <v>0.02264653641207815</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02292387543252595</v>
+        <v>0.02335640138408305</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D37">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02264653641207815</v>
+        <v>0.02309058614564831</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="D37">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.004746084480303749</v>
+        <v>0.005220692928334125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02309058614564831</v>
+        <v>0.02353463587921847</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03812056737588652</v>
+        <v>0.03856382978723404</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07357512953367876</v>
+        <v>0.07409326424870466</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="D37">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01168048229088169</v>
+        <v>0.01205727204220045</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07409326424870466</v>
+        <v>0.07461139896373056</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D37">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02353463587921847</v>
+        <v>0.02397868561278863</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03856382978723404</v>
+        <v>0.03900709219858156</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="D37">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02397868561278863</v>
+        <v>0.02486678507992895</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02335640138408305</v>
+        <v>0.02422145328719723</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D37">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03900709219858156</v>
+        <v>0.03945035460992908</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07461139896373056</v>
+        <v>0.07512953367875648</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D37">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02486678507992895</v>
+        <v>0.02531083481349911</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02422145328719723</v>
+        <v>0.02465397923875432</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.03945035460992908</v>
+        <v>0.0398936170212766</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07512953367875648</v>
+        <v>0.07564766839378238</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="D37">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02465397923875432</v>
+        <v>0.02508650519031142</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D37">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07564766839378238</v>
+        <v>0.07616580310880829</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="D37">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="D37">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01205727204220045</v>
+        <v>0.01243406179351922</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02531083481349911</v>
+        <v>0.02575488454706927</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02508650519031142</v>
+        <v>0.0263840830449827</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07616580310880829</v>
+        <v>0.0766839378238342</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="D37">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.0398936170212766</v>
+        <v>0.04033687943262412</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.0766839378238342</v>
+        <v>0.07720207253886011</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="D37">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02575488454706927</v>
+        <v>0.02619893428063943</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.04033687943262412</v>
+        <v>0.04122340425531915</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07720207253886011</v>
+        <v>0.07875647668393783</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="D37">
-        <v>1014</v>
+        <v>1025</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02619893428063943</v>
+        <v>0.02664298401420959</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07875647668393783</v>
+        <v>0.07927461139896373</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D37">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01243406179351922</v>
+        <v>0.01281085154483798</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.0263840830449827</v>
+        <v>0.02768166089965398</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -985,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>2256</v>
       </c>
       <c r="E34">
-        <v>0.04122340425531915</v>
+        <v>0.04210992907801418</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.07927461139896373</v>
+        <v>0.08031088082901554</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="D37">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -679,13 +679,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>2107</v>
       </c>
       <c r="E16">
-        <v>0.005220692928334125</v>
+        <v>0.005695301376364499</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D37">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02768166089965398</v>
+        <v>0.02811418685121107</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="D37">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E37">
         <v>1</v>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_retencao_anual.xlsx
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22">
         <v>2654</v>
       </c>
       <c r="E22">
-        <v>0.01281085154483798</v>
+        <v>0.01318764129615674</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -866,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>2252</v>
       </c>
       <c r="E27">
-        <v>0.02664298401420959</v>
+        <v>0.02708703374777975</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>2312</v>
       </c>
       <c r="E31">
-        <v>0.02811418685121107</v>
+        <v>0.02897923875432526</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1019,13 +1019,13 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36">
         <v>1930</v>
       </c>
       <c r="E36">
-        <v>0.08031088082901554</v>
+        <v>0.08082901554404145</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1038</v>
+        <v>1052</v>
       </c>
       <c r="D37">
-        <v>1038</v>
+        <v>1052</v>
       </c>
       <c r="E37">
         <v>1</v>
